--- a/tests/artifact/script/UI-Ledger.xlsx
+++ b/tests/artifact/script/UI-Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="856">
   <si>
     <t>target</t>
   </si>
@@ -2339,6 +2339,9 @@
     <t>${click.Reports}</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>click on transactions of organizations</t>
   </si>
   <si>
@@ -2366,25 +2369,16 @@
     <t>${validate.accountName}</t>
   </si>
   <si>
-    <t>Select the Account name which are present in this field</t>
-  </si>
-  <si>
     <t>${account.selectField}</t>
   </si>
   <si>
     <t>${enter.accountValue}</t>
   </si>
   <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>{ENTER}</t>
-  </si>
-  <si>
-    <t>Then we will wait for a second</t>
-  </si>
-  <si>
-    <t>${Wait}</t>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>${ledger.showbutton}</t>
   </si>
   <si>
     <t>Then user can click the Monthly ledger Toggle button</t>
@@ -2465,110 +2459,191 @@
     <t>${ledger.Filter}</t>
   </si>
   <si>
-    <t>click the Filter option to filter the Credit and debit</t>
-  </si>
-  <si>
-    <t>Filter the Credit only option</t>
-  </si>
-  <si>
-    <t>${Filter.Credit}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click the Filter option </t>
-  </si>
-  <si>
-    <t>Click the Voucher number to navigate the respective voucher page</t>
-  </si>
-  <si>
-    <t>${click.voucherNo}</t>
-  </si>
-  <si>
-    <t>Navigate back to previous page</t>
-  </si>
-  <si>
     <t>Validate the Download Ledger List</t>
   </si>
   <si>
     <t>${ledger.DownloadIcon}</t>
   </si>
   <si>
-    <t>fetch the total count of the available ledger account list</t>
-  </si>
-  <si>
-    <t>listnum</t>
-  </si>
-  <si>
-    <t>${LedgerAccount.List}</t>
-  </si>
-  <si>
-    <t>initialize the array variable to store ledger account</t>
-  </si>
-  <si>
-    <t>ledger</t>
-  </si>
-  <si>
-    <t>iterate the loop to fetxh the contact values</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>verify No in table list header</t>
+  </si>
+  <si>
+    <t>${la.Date}</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>verify the Inv.NO in table list header</t>
+  </si>
+  <si>
+    <t>${la.voucherNo}</t>
+  </si>
+  <si>
+    <t>Voucher No.</t>
+  </si>
+  <si>
+    <t>verify Invoice date in table list header</t>
+  </si>
+  <si>
+    <t>${la.status}</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>verify Customer field in table list header</t>
+  </si>
+  <si>
+    <t>${la.type}</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>verify GSTIN in table list header</t>
+  </si>
+  <si>
+    <t>${la.particulars}</t>
+  </si>
+  <si>
+    <t>Particulars</t>
+  </si>
+  <si>
+    <t>verify TIN in table list header</t>
+  </si>
+  <si>
+    <t>${la.debt}</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>verify Tax Free in table list header</t>
+  </si>
+  <si>
+    <t>${la.crdt}</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>verify Taxable in table list header</t>
+  </si>
+  <si>
+    <t>${la.bal}</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>verify the condition to iterate loop</t>
-  </si>
-  <si>
     <t>${counter}</t>
   </si>
   <si>
-    <t>${listnum}</t>
-  </si>
-  <si>
-    <t>increment the index value for the array</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>initialize a variable to store ldger account value</t>
-  </si>
-  <si>
-    <t>ledgerItem</t>
-  </si>
-  <si>
-    <t>${LedgerAccount.List}[${counter}]</t>
-  </si>
-  <si>
-    <t>append ledger account value to the list of ledger</t>
-  </si>
-  <si>
-    <t>ledgerItems</t>
-  </si>
-  <si>
-    <t>$(array|append|${ledgerItems}|${ledgerItem})</t>
-  </si>
-  <si>
-    <t>create subarray to get the exat list of ledger account values</t>
-  </si>
-  <si>
-    <t>$(array|subarray|${ledger}|1|${listnum})</t>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.date.values}</t>
+  </si>
+  <si>
+    <t>vouchNo</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.voucherNo.values}</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.status.values}</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.type.values}</t>
+  </si>
+  <si>
+    <t>particulars</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.particular.values}</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.debit.values}</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.credit.values}</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>${la.table.row.xpath}[${counter}]${la.balance.values}</t>
+  </si>
+  <si>
+    <t>${date}</t>
+  </si>
+  <si>
+    <t>${vouchNo}</t>
+  </si>
+  <si>
+    <t>${status}</t>
+  </si>
+  <si>
+    <t>${type}</t>
+  </si>
+  <si>
+    <t>${particulars}</t>
+  </si>
+  <si>
+    <t>${debit}</t>
+  </si>
+  <si>
+    <t>${credit}</t>
+  </si>
+  <si>
+    <t>${balance}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2636,6 +2711,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
@@ -2658,16 +2739,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2681,75 +2770,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2760,6 +2780,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2781,8 +2809,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,8 +2840,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2823,7 +2904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,7 +2922,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,19 +2964,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,25 +3042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2901,31 +3066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,73 +3084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3048,6 +3129,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3058,17 +3172,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3088,15 +3191,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3112,30 +3206,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3144,13 +3214,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3159,138 +3243,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3332,14 +3413,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3412,6 +3493,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3445,7 +3530,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3453,15 +3538,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3476,11 +3561,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3515,52 +3600,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6598,14 +6683,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6619,12 +6704,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6636,7 +6721,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6671,10 +6756,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6689,7 +6774,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6704,69 +6789,69 @@
       <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6778,7 +6863,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6795,7 +6880,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6812,7 +6897,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6829,7 +6914,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6846,7 +6931,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6863,7 +6948,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6880,7 +6965,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6889,7 +6974,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6897,7 +6982,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6914,7 +6999,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6931,7 +7016,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6948,7 +7033,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6965,7 +7050,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6982,7 +7067,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6999,7 +7084,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7016,7 +7101,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7033,7 +7118,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7050,7 +7135,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7067,7 +7152,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7084,7 +7169,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7101,7 +7186,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7118,7 +7203,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7135,7 +7220,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7152,7 +7237,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7169,7 +7254,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7186,7 +7271,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7203,7 +7288,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7220,7 +7305,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7237,7 +7322,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7254,7 +7339,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7271,7 +7356,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7288,7 +7373,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7305,7 +7390,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7322,7 +7407,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7339,7 +7424,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7356,7 +7441,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7373,7 +7458,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7390,7 +7475,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7407,7 +7492,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7424,7 +7509,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7441,7 +7526,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7458,7 +7543,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7475,7 +7560,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7492,7 +7577,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7509,7 +7594,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7526,7 +7611,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7543,7 +7628,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7560,7 +7645,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7577,7 +7662,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7594,7 +7679,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7611,7 +7696,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7628,7 +7713,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7645,7 +7730,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7662,7 +7747,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7679,7 +7764,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7696,7 +7781,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7713,7 +7798,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7730,7 +7815,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7747,7 +7832,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7764,7 +7849,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7781,7 +7866,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7798,7 +7883,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7815,7 +7900,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7832,7 +7917,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7849,7 +7934,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7866,7 +7951,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7883,7 +7968,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7900,7 +7985,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7917,7 +8002,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7934,7 +8019,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7951,7 +8036,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7968,7 +8053,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7985,7 +8070,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8002,7 +8087,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8019,7 +8104,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8036,7 +8121,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8053,7 +8138,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8070,7 +8155,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8087,7 +8172,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8104,7 +8189,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8121,7 +8206,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8138,7 +8223,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8155,7 +8240,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8172,7 +8257,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8189,7 +8274,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8206,7 +8291,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8223,7 +8308,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8240,7 +8325,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8257,7 +8342,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8274,7 +8359,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8291,7 +8376,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8308,7 +8393,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8325,7 +8410,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8342,7 +8427,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8359,7 +8444,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8376,7 +8461,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8393,7 +8478,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8410,7 +8495,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8427,7 +8512,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8444,7 +8529,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8461,7 +8546,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8478,7 +8563,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8495,7 +8580,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8512,7 +8597,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8529,7 +8614,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8546,7 +8631,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8563,7 +8648,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8580,7 +8665,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8597,7 +8682,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8614,7 +8699,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8631,7 +8716,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8648,7 +8733,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8665,7 +8750,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8682,7 +8767,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8699,7 +8784,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8716,7 +8801,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8733,7 +8818,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8750,7 +8835,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8767,7 +8852,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8784,7 +8869,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8801,7 +8886,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8818,7 +8903,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8835,7 +8920,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8852,7 +8937,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8869,7 +8954,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8886,7 +8971,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8903,7 +8988,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8920,7 +9005,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8937,7 +9022,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8954,7 +9039,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8971,7 +9056,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8988,7 +9073,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9005,7 +9090,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9022,7 +9107,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9039,7 +9124,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9056,7 +9141,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9073,7 +9158,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9090,7 +9175,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9107,7 +9192,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9124,7 +9209,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9141,7 +9226,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9158,7 +9243,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9175,7 +9260,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9192,7 +9277,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9209,7 +9294,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9226,7 +9311,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9243,7 +9328,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9260,7 +9345,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9277,7 +9362,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9294,7 +9379,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9311,7 +9396,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9328,7 +9413,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9345,7 +9430,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9362,7 +9447,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9379,7 +9464,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9396,7 +9481,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9413,7 +9498,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9430,7 +9515,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9447,7 +9532,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9464,7 +9549,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9481,7 +9566,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9498,7 +9583,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="51"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9515,7 +9600,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="51"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9532,7 +9617,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="51"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9549,7 +9634,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9566,7 +9651,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="51"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9583,7 +9668,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="51"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9600,7 +9685,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="51"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9617,7 +9702,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="51"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9634,7 +9719,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="51"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9651,7 +9736,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="51"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9668,7 +9753,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="51"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9685,7 +9770,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="51"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9702,7 +9787,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="51"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9719,7 +9804,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="51"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9736,7 +9821,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="51"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9753,7 +9838,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="51"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9770,7 +9855,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="51"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9787,7 +9872,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="51"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9804,7 +9889,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="51"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9821,7 +9906,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="51"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9884,10 +9969,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9931,14 +10016,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9952,12 +10037,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9969,7 +10054,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10004,10 +10089,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10043,12 +10128,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10068,12 +10153,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10084,16 +10169,18 @@
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>758</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10103,7 +10190,7 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
@@ -10112,13 +10199,13 @@
         <v>363</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10127,10 +10214,10 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
@@ -10139,13 +10226,13 @@
         <v>253</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10155,7 +10242,7 @@
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="30" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10164,13 +10251,13 @@
         <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10180,7 +10267,7 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -10189,13 +10276,13 @@
         <v>253</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10204,9 +10291,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30" t="s">
-        <v>767</v>
-      </c>
+      <c r="B12" s="30"/>
       <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
@@ -10222,7 +10307,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10231,23 +10316,21 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>715</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>771</v>
-      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10256,23 +10339,21 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="33" t="s">
-        <v>772</v>
-      </c>
+      <c r="B14" s="33"/>
       <c r="C14" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>715</v>
+        <v>363</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10282,7 +10363,7 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="33" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>30</v>
@@ -10291,13 +10372,13 @@
         <v>253</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10307,7 +10388,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10316,13 +10397,13 @@
         <v>253</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10332,7 +10413,7 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
@@ -10341,15 +10422,15 @@
         <v>707</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10359,7 +10440,7 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10368,13 +10449,13 @@
         <v>253</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10384,7 +10465,7 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
@@ -10393,15 +10474,15 @@
         <v>707</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10411,22 +10492,22 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>715</v>
+        <v>253</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10435,9 +10516,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
-        <v>786</v>
-      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
@@ -10445,13 +10524,13 @@
         <v>253</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10460,7 +10539,9 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>787</v>
+      </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
@@ -10474,7 +10555,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10484,22 +10565,22 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>715</v>
+        <v>363</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10507,9 +10588,11 @@
       <c r="O23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="30" t="s">
-        <v>789</v>
+      <c r="A24" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>792</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10518,13 +10601,13 @@
         <v>253</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F24" s="28"/>
+        <v>793</v>
+      </c>
+      <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10533,23 +10616,23 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
-        <v>791</v>
+      <c r="B25" s="20" t="s">
+        <v>794</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="F25" s="28"/>
+        <v>795</v>
+      </c>
+      <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10558,21 +10641,23 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="30"/>
+      <c r="B26" s="20" t="s">
+        <v>796</v>
+      </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>715</v>
+        <v>253</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F26" s="28"/>
+        <v>797</v>
+      </c>
+      <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10580,11 +10665,9 @@
       <c r="O26" s="22"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="19" t="s">
-        <v>793</v>
-      </c>
+      <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10593,13 +10676,13 @@
         <v>253</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10608,23 +10691,25 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>796</v>
+      <c r="B28" s="30" t="s">
+        <v>800</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F28" s="27"/>
+        <v>801</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>802</v>
+      </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10633,23 +10718,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>798</v>
+      <c r="B29" s="30" t="s">
+        <v>803</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F29" s="27"/>
+        <v>804</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10658,23 +10745,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
-        <v>800</v>
+      <c r="B30" s="30" t="s">
+        <v>806</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F30" s="27"/>
+        <v>807</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>808</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10683,23 +10772,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
-        <v>801</v>
+      <c r="B31" s="30" t="s">
+        <v>809</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="F31" s="27"/>
+        <v>810</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>811</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10708,48 +10799,52 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
-        <v>803</v>
+      <c r="B32" s="30" t="s">
+        <v>812</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F32" s="27"/>
+        <v>813</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>814</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
-        <v>804</v>
+      <c r="B33" s="30" t="s">
+        <v>815</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="F33" s="27"/>
+        <v>816</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>817</v>
+      </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10758,23 +10853,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
-        <v>772</v>
+      <c r="B34" s="30" t="s">
+        <v>818</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>715</v>
+        <v>530</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F34" s="27"/>
+        <v>819</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>820</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10783,21 +10880,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>806</v>
+      <c r="B35" s="30" t="s">
+        <v>821</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+        <v>530</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>823</v>
+      </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10806,23 +10907,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
-        <v>807</v>
-      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="F36" s="28"/>
+        <v>824</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>825</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10831,25 +10932,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="33" t="s">
-        <v>809</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>811</v>
+      <c r="B37" s="20"/>
+      <c r="C37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>827</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10858,25 +10957,23 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>811</v>
+      <c r="B38" s="20"/>
+      <c r="C38" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>828</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>829</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10885,25 +10982,23 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20" t="s">
-        <v>814</v>
-      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="32" t="s">
-        <v>465</v>
+      <c r="D39" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>816</v>
+        <v>830</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>831</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10912,25 +11007,23 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>819</v>
+      <c r="B40" s="20"/>
+      <c r="C40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10939,25 +11032,23 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30" t="s">
-        <v>820</v>
-      </c>
+      <c r="B41" s="20"/>
       <c r="C41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>821</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>822</v>
+        <v>30</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>834</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>835</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10966,25 +11057,23 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>824</v>
+      <c r="E42" s="39" t="s">
+        <v>836</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10993,52 +11082,48 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30" t="s">
-        <v>826</v>
-      </c>
+      <c r="B43" s="20"/>
       <c r="C43" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>827</v>
+        <v>30</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>838</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="G43" s="32"/>
+        <v>839</v>
+      </c>
+      <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
+    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="30" t="s">
-        <v>829</v>
-      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>827</v>
+        <v>30</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>840</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11048,14 +11133,22 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="C45" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>842</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>843</v>
+      </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11065,14 +11158,22 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="C46" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>844</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>845</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11082,14 +11183,22 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="C47" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>846</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>847</v>
+      </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11099,14 +11208,22 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="C48" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>848</v>
+      </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11116,14 +11233,22 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="C49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>849</v>
+      </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11133,14 +11258,22 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="C50" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>850</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11150,14 +11283,22 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="C51" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>851</v>
+      </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11167,14 +11308,22 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="C52" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>852</v>
+      </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11184,14 +11333,22 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="C53" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>853</v>
+      </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11201,14 +11358,22 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="C54" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>854</v>
+      </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11218,14 +11383,22 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="C55" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>855</v>
+      </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11235,14 +11408,22 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="C56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>827</v>
+      </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11259,7 +11440,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11276,7 +11457,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11293,7 +11474,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11310,7 +11491,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11327,7 +11508,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11344,7 +11525,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11361,7 +11542,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11378,7 +11559,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11395,7 +11576,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11412,7 +11593,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11429,7 +11610,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11446,7 +11627,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11463,7 +11644,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11480,7 +11661,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11497,7 +11678,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11514,7 +11695,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11531,7 +11712,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11548,7 +11729,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11565,7 +11746,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11582,7 +11763,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11599,7 +11780,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11616,7 +11797,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11633,7 +11814,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11650,7 +11831,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11667,7 +11848,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11684,7 +11865,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11701,7 +11882,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11718,7 +11899,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11735,7 +11916,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11752,7 +11933,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11769,7 +11950,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11786,7 +11967,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11803,7 +11984,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11820,7 +12001,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11837,7 +12018,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11854,7 +12035,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11871,7 +12052,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11888,7 +12069,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11905,7 +12086,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11922,7 +12103,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11939,7 +12120,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11956,7 +12137,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11973,7 +12154,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11990,7 +12171,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12007,7 +12188,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12024,7 +12205,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12041,7 +12222,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12058,7 +12239,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12075,7 +12256,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12092,7 +12273,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12109,7 +12290,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12126,7 +12307,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12143,7 +12324,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12160,7 +12341,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12177,7 +12358,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12194,7 +12375,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12211,7 +12392,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12228,7 +12409,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12245,7 +12426,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12262,7 +12443,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12279,7 +12460,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12296,7 +12477,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12313,7 +12494,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12330,7 +12511,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12347,7 +12528,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12364,7 +12545,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12381,7 +12562,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12398,7 +12579,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12415,7 +12596,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12432,7 +12613,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12449,7 +12630,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12466,7 +12647,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12483,7 +12664,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12500,7 +12681,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12517,7 +12698,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12534,7 +12715,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12551,7 +12732,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12568,7 +12749,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12585,7 +12766,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12602,7 +12783,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12619,7 +12800,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12636,7 +12817,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12653,7 +12834,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12670,7 +12851,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12687,7 +12868,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12704,7 +12885,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12721,7 +12902,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12738,7 +12919,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12755,7 +12936,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12772,7 +12953,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12789,7 +12970,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12806,7 +12987,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12823,7 +13004,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12840,7 +13021,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12857,7 +13038,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12874,7 +13055,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12891,7 +13072,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12908,7 +13089,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12925,7 +13106,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12942,7 +13123,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12959,7 +13140,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12976,7 +13157,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12993,7 +13174,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13010,7 +13191,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13027,7 +13208,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13044,7 +13225,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13061,7 +13242,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13078,7 +13259,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13095,7 +13276,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13112,7 +13293,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13129,7 +13310,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13146,7 +13327,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13163,7 +13344,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="51"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13180,7 +13361,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="51"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13197,7 +13378,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="51"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13214,7 +13395,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="51"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13231,7 +13412,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="51"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13248,7 +13429,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="51"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13265,7 +13446,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="51"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13282,7 +13463,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="51"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13299,7 +13480,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="51"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13316,7 +13497,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="51"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13333,7 +13514,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="51"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13350,7 +13531,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="51"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13367,7 +13548,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="51"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13384,7 +13565,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="51"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13401,7 +13582,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="51"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13418,7 +13599,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="51"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13435,7 +13616,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="51"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -13452,7 +13633,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="51"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -13469,7 +13650,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="51"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -13486,7 +13667,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="51"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -13503,7 +13684,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="50"/>
+      <c r="J189" s="51"/>
       <c r="K189" s="22"/>
       <c r="L189" s="23"/>
       <c r="M189" s="21"/>
@@ -13520,7 +13701,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="50"/>
+      <c r="J190" s="51"/>
       <c r="K190" s="22"/>
       <c r="L190" s="23"/>
       <c r="M190" s="21"/>
@@ -13537,7 +13718,7 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="50"/>
+      <c r="J191" s="51"/>
       <c r="K191" s="22"/>
       <c r="L191" s="23"/>
       <c r="M191" s="21"/>
@@ -13554,7 +13735,7 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="50"/>
+      <c r="J192" s="51"/>
       <c r="K192" s="22"/>
       <c r="L192" s="23"/>
       <c r="M192" s="21"/>
@@ -13571,7 +13752,7 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="50"/>
+      <c r="J193" s="51"/>
       <c r="K193" s="22"/>
       <c r="L193" s="23"/>
       <c r="M193" s="21"/>
@@ -13588,7 +13769,7 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="50"/>
+      <c r="J194" s="51"/>
       <c r="K194" s="22"/>
       <c r="L194" s="23"/>
       <c r="M194" s="21"/>
@@ -13605,7 +13786,7 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="50"/>
+      <c r="J195" s="51"/>
       <c r="K195" s="22"/>
       <c r="L195" s="23"/>
       <c r="M195" s="21"/>
@@ -13622,7 +13803,7 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="50"/>
+      <c r="J196" s="51"/>
       <c r="K196" s="22"/>
       <c r="L196" s="23"/>
       <c r="M196" s="21"/>
@@ -13639,7 +13820,7 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="50"/>
+      <c r="J197" s="51"/>
       <c r="K197" s="22"/>
       <c r="L197" s="23"/>
       <c r="M197" s="21"/>
@@ -13656,7 +13837,7 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="50"/>
+      <c r="J198" s="51"/>
       <c r="K198" s="22"/>
       <c r="L198" s="23"/>
       <c r="M198" s="21"/>
@@ -13673,7 +13854,7 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="50"/>
+      <c r="J199" s="51"/>
       <c r="K199" s="22"/>
       <c r="L199" s="23"/>
       <c r="M199" s="21"/>
@@ -13690,7 +13871,7 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="50"/>
+      <c r="J200" s="51"/>
       <c r="K200" s="22"/>
       <c r="L200" s="23"/>
       <c r="M200" s="21"/>
@@ -13707,7 +13888,7 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="50"/>
+      <c r="J201" s="51"/>
       <c r="K201" s="22"/>
       <c r="L201" s="23"/>
       <c r="M201" s="21"/>
@@ -13724,12 +13905,267 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
-      <c r="J202" s="50"/>
+      <c r="J202" s="51"/>
       <c r="K202" s="22"/>
       <c r="L202" s="23"/>
       <c r="M202" s="21"/>
       <c r="N202" s="23"/>
       <c r="O202" s="22"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="51"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="22"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="51"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="23"/>
+      <c r="O204" s="22"/>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="51"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="23"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="23"/>
+      <c r="O205" s="22"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="51"/>
+      <c r="K206" s="22"/>
+      <c r="L206" s="23"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="23"/>
+      <c r="O206" s="22"/>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="51"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="23"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="23"/>
+      <c r="O207" s="22"/>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="51"/>
+      <c r="K208" s="22"/>
+      <c r="L208" s="23"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="23"/>
+      <c r="O208" s="22"/>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="51"/>
+      <c r="K209" s="22"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="23"/>
+      <c r="O209" s="22"/>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A210" s="19"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="51"/>
+      <c r="K210" s="22"/>
+      <c r="L210" s="23"/>
+      <c r="M210" s="21"/>
+      <c r="N210" s="23"/>
+      <c r="O210" s="22"/>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="51"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="23"/>
+      <c r="O211" s="22"/>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="51"/>
+      <c r="K212" s="22"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="21"/>
+      <c r="N212" s="23"/>
+      <c r="O212" s="22"/>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="51"/>
+      <c r="K213" s="22"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="23"/>
+      <c r="O213" s="22"/>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="51"/>
+      <c r="K214" s="22"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="23"/>
+      <c r="O214" s="22"/>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="51"/>
+      <c r="K215" s="22"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="23"/>
+      <c r="O215" s="22"/>
+    </row>
+    <row r="216" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="51"/>
+      <c r="K216" s="22"/>
+      <c r="L216" s="23"/>
+      <c r="M216" s="21"/>
+      <c r="N216" s="23"/>
+      <c r="O216" s="22"/>
+    </row>
+    <row r="217" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A217" s="19"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="51"/>
+      <c r="K217" s="22"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="21"/>
+      <c r="N217" s="23"/>
+      <c r="O217" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13738,18 +14174,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N103:N202">
+  <conditionalFormatting sqref="N118:N217">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N118,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N118,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N118,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N102">
+  <conditionalFormatting sqref="N1 N3:N117">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13761,10 +14197,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C14 C20 C21 C22 C23 C27 C32 C33 C36 C37 C38 C41 C42 C43 C44 C7:C8 C9:C10 C15:C16 C17:C19 C24:C26 C28:C29 C30:C31 C34:C35 C39:C40 C45:C202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C14 C20 C21 C24 C27 C28 C31 C32 C33 C34 C35 C36 C37 C40 C41 C48 C49 C56 C57 C7:C8 C9:C10 C15:C16 C17:C19 C22:C23 C25:C26 C29:C30 C38:C39 C42:C47 C50:C55 C58:C62 C63:C217">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D14 D20 D21 D22 D23 D27 D32 D33 D36 D37 D38 D41 D42 D43 D44 D7:D8 D9:D10 D15:D16 D17:D19 D24:D26 D28:D29 D30:D31 D34:D35 D39:D40 D45:D202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D14 D20 D21 D24 D27 D28 D31 D32 D33 D34 D35 D36 D37 D40 D41 D48 D49 D56 D57 D7:D8 D9:D10 D15:D16 D17:D19 D22:D23 D25:D26 D29:D30 D38:D39 D42:D47 D50:D55 D58:D62 D63:D217">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-Ledger.xlsx
+++ b/tests/artifact/script/UI-Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="783">
   <si>
     <t>target</t>
   </si>
@@ -2339,6 +2339,9 @@
     <t>${click.Reports}</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>click on transactions of organizations</t>
   </si>
   <si>
@@ -2348,25 +2351,13 @@
     <t>Validating the Ledger page</t>
   </si>
   <si>
-    <t>We can see the View ledger page</t>
+    <t>Validate the Ledger Heading</t>
   </si>
   <si>
     <t>${validate.ViewLedger}</t>
   </si>
   <si>
-    <t>Then we can see the help option</t>
-  </si>
-  <si>
-    <t>${validate.questionCircle}</t>
-  </si>
-  <si>
-    <t>Then we can see the Account name field</t>
-  </si>
-  <si>
-    <t>${validate.accountName}</t>
-  </si>
-  <si>
-    <t>Select the Account name which are present in this field</t>
+    <t xml:space="preserve">select the account name </t>
   </si>
   <si>
     <t>${account.selectField}</t>
@@ -2375,31 +2366,25 @@
     <t>${enter.accountValue}</t>
   </si>
   <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>{ENTER}</t>
-  </si>
-  <si>
-    <t>Then we will wait for a second</t>
-  </si>
-  <si>
-    <t>${Wait}</t>
-  </si>
-  <si>
-    <t>Then user can click the Monthly ledger Toggle button</t>
-  </si>
-  <si>
-    <t>${click.monthlyLedger}</t>
-  </si>
-  <si>
-    <t>Then we can see the From Date of the ledger</t>
-  </si>
-  <si>
-    <t>${verify.From}</t>
-  </si>
-  <si>
-    <t>Then we can enter the From Date</t>
+    <t>replace the locator</t>
+  </si>
+  <si>
+    <t>${Account.valueSelect}</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>Values.AccountsName</t>
+  </si>
+  <si>
+    <t>Double click on Locator</t>
+  </si>
+  <si>
+    <t>${Values.AccountsName}</t>
+  </si>
+  <si>
+    <t>Enter the From Date</t>
   </si>
   <si>
     <t>${verify.FromDate}</t>
@@ -2408,13 +2393,7 @@
     <t>${From.Date}</t>
   </si>
   <si>
-    <t>And we can see the To Date field</t>
-  </si>
-  <si>
-    <t>${verify.To}</t>
-  </si>
-  <si>
-    <t>Then we can enter the To date</t>
+    <t>Enter the To date</t>
   </si>
   <si>
     <t>${verify.ToDate}</t>
@@ -2423,150 +2402,27 @@
     <t>${To.Date}</t>
   </si>
   <si>
-    <t>And then we can see the Cost center section</t>
-  </si>
-  <si>
-    <t>${verify.CostCenter}</t>
-  </si>
-  <si>
-    <t>${select.CostCenter}</t>
-  </si>
-  <si>
-    <t>Then we can add the cost center if we want</t>
-  </si>
-  <si>
-    <t>${verify.addCostCenter}</t>
+    <t>verify the Add cost center LinkText</t>
+  </si>
+  <si>
+    <t>${ledger.costCenter.linkText}</t>
   </si>
   <si>
     <t>Then we can click show the ledger button</t>
   </si>
   <si>
     <t>${click.show}</t>
-  </si>
-  <si>
-    <t>Navigate to Ledger Account list page</t>
-  </si>
-  <si>
-    <t>Validate the Ledger Account List page Header</t>
-  </si>
-  <si>
-    <t>${LedgerList.Header}</t>
-  </si>
-  <si>
-    <t>Validate Search ledger</t>
-  </si>
-  <si>
-    <t>${ledger.Search}</t>
-  </si>
-  <si>
-    <t>Validate Filter Option</t>
-  </si>
-  <si>
-    <t>${ledger.Filter}</t>
-  </si>
-  <si>
-    <t>click the Filter option to filter the Credit and debit</t>
-  </si>
-  <si>
-    <t>Filter the Credit only option</t>
-  </si>
-  <si>
-    <t>${Filter.Credit}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click the Filter option </t>
-  </si>
-  <si>
-    <t>Click the Voucher number to navigate the respective voucher page</t>
-  </si>
-  <si>
-    <t>${click.voucherNo}</t>
-  </si>
-  <si>
-    <t>Navigate back to previous page</t>
-  </si>
-  <si>
-    <t>Validate the Download Ledger List</t>
-  </si>
-  <si>
-    <t>${ledger.DownloadIcon}</t>
-  </si>
-  <si>
-    <t>fetch the total count of the available ledger account list</t>
-  </si>
-  <si>
-    <t>listnum</t>
-  </si>
-  <si>
-    <t>${LedgerAccount.List}</t>
-  </si>
-  <si>
-    <t>initialize the array variable to store ledger account</t>
-  </si>
-  <si>
-    <t>ledger</t>
-  </si>
-  <si>
-    <t>iterate the loop to fetxh the contact values</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>verify the condition to iterate loop</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>${listnum}</t>
-  </si>
-  <si>
-    <t>increment the index value for the array</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>initialize a variable to store ldger account value</t>
-  </si>
-  <si>
-    <t>ledgerItem</t>
-  </si>
-  <si>
-    <t>${LedgerAccount.List}[${counter}]</t>
-  </si>
-  <si>
-    <t>append ledger account value to the list of ledger</t>
-  </si>
-  <si>
-    <t>ledgerItems</t>
-  </si>
-  <si>
-    <t>$(array|append|${ledgerItems}|${ledgerItem})</t>
-  </si>
-  <si>
-    <t>create subarray to get the exat list of ledger account values</t>
-  </si>
-  <si>
-    <t>$(array|subarray|${ledger}|1|${listnum})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2658,16 +2514,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2681,75 +2545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2760,6 +2555,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2781,8 +2584,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,8 +2615,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2823,7 +2679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,7 +2697,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,19 +2739,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,25 +2817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2901,31 +2841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,73 +2859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3048,6 +2904,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3058,17 +2947,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3088,15 +2966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3112,30 +2981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3144,153 +2989,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3332,14 +3188,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3412,16 +3268,13 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3515,52 +3368,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6598,14 +6451,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6619,12 +6472,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6636,7 +6489,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6671,10 +6524,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6689,7 +6542,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6704,69 +6557,69 @@
       <c r="E5" s="32" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -6778,7 +6631,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6795,7 +6648,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6812,7 +6665,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6829,7 +6682,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6846,7 +6699,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6863,7 +6716,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6880,7 +6733,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6889,7 +6742,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -6897,7 +6750,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6914,7 +6767,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6931,7 +6784,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6948,7 +6801,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6965,7 +6818,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6982,7 +6835,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6999,7 +6852,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7016,7 +6869,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="49"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7033,7 +6886,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="49"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7050,7 +6903,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7067,7 +6920,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7084,7 +6937,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7101,7 +6954,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="49"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7118,7 +6971,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="49"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7135,7 +6988,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7152,7 +7005,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7169,7 +7022,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="49"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7186,7 +7039,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="49"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7203,7 +7056,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="49"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7220,7 +7073,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="49"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7237,7 +7090,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="49"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7254,7 +7107,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="49"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7271,7 +7124,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="49"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7288,7 +7141,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="49"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7305,7 +7158,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="49"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7322,7 +7175,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="49"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7339,7 +7192,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="49"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7356,7 +7209,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="49"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7373,7 +7226,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="49"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7390,7 +7243,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7407,7 +7260,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="49"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7424,7 +7277,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="49"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7441,7 +7294,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7458,7 +7311,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7475,7 +7328,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7492,7 +7345,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7509,7 +7362,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7526,7 +7379,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="49"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7543,7 +7396,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="49"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7560,7 +7413,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="49"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7577,7 +7430,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="49"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7594,7 +7447,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="49"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7611,7 +7464,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="49"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7628,7 +7481,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="49"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7645,7 +7498,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7662,7 +7515,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7679,7 +7532,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7696,7 +7549,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="49"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7713,7 +7566,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="49"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7730,7 +7583,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="49"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7747,7 +7600,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7764,7 +7617,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="49"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7781,7 +7634,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7798,7 +7651,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="49"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7815,7 +7668,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="49"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7832,7 +7685,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7849,7 +7702,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="49"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7866,7 +7719,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="49"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7883,7 +7736,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="49"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7900,7 +7753,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="49"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7917,7 +7770,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="49"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7934,7 +7787,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="49"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7951,7 +7804,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="49"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7968,7 +7821,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="49"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7985,7 +7838,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="49"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8002,7 +7855,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="49"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8019,7 +7872,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="49"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8036,7 +7889,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="49"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8053,7 +7906,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="49"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8070,7 +7923,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="49"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8087,7 +7940,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="49"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8104,7 +7957,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="49"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8121,7 +7974,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="49"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8138,7 +7991,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="49"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8155,7 +8008,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="49"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8172,7 +8025,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="49"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8189,7 +8042,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="49"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8206,7 +8059,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="49"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8223,7 +8076,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="49"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8240,7 +8093,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="49"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8257,7 +8110,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="49"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8274,7 +8127,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="49"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8291,7 +8144,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="49"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8308,7 +8161,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="49"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8325,7 +8178,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="49"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8342,7 +8195,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="49"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8359,7 +8212,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="49"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8376,7 +8229,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="49"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8393,7 +8246,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="49"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8410,7 +8263,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="49"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8427,7 +8280,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="49"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8444,7 +8297,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="49"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8461,7 +8314,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="49"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8478,7 +8331,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="49"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8495,7 +8348,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="49"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8512,7 +8365,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="49"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8529,7 +8382,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="49"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8546,7 +8399,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="49"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8563,7 +8416,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="49"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8580,7 +8433,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="49"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8597,7 +8450,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="49"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8614,7 +8467,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="49"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8631,7 +8484,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="49"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8648,7 +8501,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="49"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8665,7 +8518,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="49"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8682,7 +8535,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="49"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8699,7 +8552,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="49"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8716,7 +8569,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="49"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8733,7 +8586,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="49"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8750,7 +8603,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="49"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8767,7 +8620,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="49"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8784,7 +8637,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="49"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8801,7 +8654,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="49"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8818,7 +8671,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="49"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8835,7 +8688,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="49"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8852,7 +8705,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="49"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8869,7 +8722,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="49"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8886,7 +8739,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="49"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8903,7 +8756,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="49"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8920,7 +8773,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="49"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8937,7 +8790,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="49"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8954,7 +8807,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="49"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8971,7 +8824,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="49"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8988,7 +8841,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="49"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9005,7 +8858,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="49"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9022,7 +8875,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="49"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9039,7 +8892,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="49"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9056,7 +8909,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="49"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9073,7 +8926,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="49"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9090,7 +8943,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="49"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9107,7 +8960,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="49"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9124,7 +8977,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="49"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9141,7 +8994,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="49"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9158,7 +9011,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="49"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9175,7 +9028,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="49"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9192,7 +9045,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="49"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9209,7 +9062,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="49"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9226,7 +9079,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="49"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9243,7 +9096,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="49"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9260,7 +9113,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="49"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9277,7 +9130,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="49"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9294,7 +9147,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="49"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9311,7 +9164,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="49"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9328,7 +9181,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="49"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9345,7 +9198,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="49"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9362,7 +9215,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="49"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9379,7 +9232,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="49"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9396,7 +9249,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="49"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9413,7 +9266,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="49"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9430,7 +9283,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="49"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9447,7 +9300,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="49"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9464,7 +9317,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="49"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9481,7 +9334,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="49"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9498,7 +9351,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="49"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9515,7 +9368,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="49"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9532,7 +9385,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="49"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9549,7 +9402,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="49"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9566,7 +9419,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="49"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9583,7 +9436,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="49"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9600,7 +9453,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="49"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9617,7 +9470,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="49"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9634,7 +9487,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="49"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9651,7 +9504,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="49"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9668,7 +9521,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="49"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9685,7 +9538,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="49"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9702,7 +9555,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="49"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9719,7 +9572,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="49"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9736,7 +9589,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="49"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9753,7 +9606,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="49"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9770,7 +9623,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="49"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9787,7 +9640,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
+      <c r="J186" s="49"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9804,7 +9657,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
+      <c r="J187" s="49"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9821,7 +9674,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
+      <c r="J188" s="49"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9884,10 +9737,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9895,11 +9748,12 @@
     <col min="1" max="1" width="38" style="4" customWidth="1"/>
     <col min="2" max="2" width="44.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="4" max="4" width="39.4416666666667" style="7" customWidth="1"/>
     <col min="5" max="5" width="81.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="75.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.3333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.9166666666667" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.6666666666667" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
     <col min="12" max="12" width="12" style="10" customWidth="1"/>
@@ -9931,14 +9785,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9952,12 +9806,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9969,7 +9823,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10004,10 +9858,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="43" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10043,12 +9897,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10068,12 +9922,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10084,16 +9938,18 @@
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>758</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="50"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10103,7 +9959,7 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
@@ -10112,13 +9968,13 @@
         <v>363</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10127,10 +9983,10 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
@@ -10139,13 +9995,13 @@
         <v>253</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10155,22 +10011,22 @@
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="30" t="s">
-        <v>763</v>
-      </c>
-      <c r="C10" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+        <v>707</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>766</v>
+      </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10179,23 +10035,29 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
-      <c r="B11" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="B11" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>766</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10204,25 +10066,23 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>769</v>
-      </c>
-      <c r="G12" s="27"/>
+      <c r="D12" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10231,23 +10091,25 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>770</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>771</v>
+      <c r="B13" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>775</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10256,23 +10118,25 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>715</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>773</v>
-      </c>
-      <c r="F14" s="28"/>
+      <c r="D14" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10281,23 +10145,15 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
-      <c r="B15" s="33" t="s">
-        <v>774</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>775</v>
-      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10306,23 +10162,15 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>777</v>
-      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="28"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10331,25 +10179,15 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30" t="s">
-        <v>778</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>780</v>
-      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10358,23 +10196,15 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>782</v>
-      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="28"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10383,25 +10213,15 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>785</v>
-      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10411,22 +10231,22 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="30" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>715</v>
+        <v>253</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10436,22 +10256,22 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="30" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10460,21 +10280,15 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="F22" s="28"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10483,23 +10297,15 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
-      <c r="B23" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F23" s="28"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="49"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10508,23 +10314,15 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="F24" s="28"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="49"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10533,23 +10331,15 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="F25" s="28"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10558,21 +10348,15 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="F26" s="28"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10580,26 +10364,16 @@
       <c r="O26" s="22"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="19" t="s">
-        <v>793</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>795</v>
-      </c>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10608,23 +10382,15 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>796</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>797</v>
-      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="49"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10633,23 +10399,15 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>799</v>
-      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="49"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10658,23 +10416,15 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>799</v>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10683,23 +10433,15 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>802</v>
-      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10708,48 +10450,32 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>799</v>
-      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="49"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>805</v>
-      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="49"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10758,23 +10484,15 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>773</v>
-      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="49"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10783,21 +10501,15 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>620</v>
-      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="49"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10806,23 +10518,15 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="F36" s="28"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="49"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10831,25 +10535,15 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="33" t="s">
-        <v>809</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>811</v>
-      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="49"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10858,25 +10552,15 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>811</v>
-      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="49"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10885,25 +10569,15 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>815</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>816</v>
-      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="49"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10912,25 +10586,15 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>819</v>
-      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="49"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10939,25 +10603,15 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>821</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>822</v>
-      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="49"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10966,25 +10620,15 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>825</v>
-      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="49"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10993,52 +10637,32 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>827</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="G43" s="32"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="49"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
+    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>827</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>830</v>
-      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="49"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11055,7 +10679,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11072,7 +10696,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="49"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -11089,7 +10713,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="50"/>
+      <c r="J47" s="49"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11106,7 +10730,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="50"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11123,7 +10747,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="50"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11140,7 +10764,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11157,7 +10781,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11174,7 +10798,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="50"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11191,7 +10815,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="50"/>
+      <c r="J53" s="49"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11208,7 +10832,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="50"/>
+      <c r="J54" s="49"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11225,7 +10849,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="50"/>
+      <c r="J55" s="49"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11242,7 +10866,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="49"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11259,7 +10883,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="49"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11276,7 +10900,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="50"/>
+      <c r="J58" s="49"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11293,7 +10917,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="50"/>
+      <c r="J59" s="49"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11310,7 +10934,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11327,7 +10951,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11344,7 +10968,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11361,7 +10985,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="50"/>
+      <c r="J63" s="49"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11378,7 +11002,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="49"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11395,7 +11019,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="49"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11412,7 +11036,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11429,7 +11053,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="49"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11446,7 +11070,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="50"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11463,7 +11087,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="50"/>
+      <c r="J69" s="49"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11480,7 +11104,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="50"/>
+      <c r="J70" s="49"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11497,7 +11121,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="50"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11514,7 +11138,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="50"/>
+      <c r="J72" s="49"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11531,7 +11155,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="50"/>
+      <c r="J73" s="49"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11548,7 +11172,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="49"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11565,7 +11189,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="50"/>
+      <c r="J75" s="49"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11582,7 +11206,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="50"/>
+      <c r="J76" s="49"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11599,7 +11223,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="50"/>
+      <c r="J77" s="49"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11616,7 +11240,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="50"/>
+      <c r="J78" s="49"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11633,7 +11257,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="50"/>
+      <c r="J79" s="49"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11650,7 +11274,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="50"/>
+      <c r="J80" s="49"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11667,7 +11291,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="50"/>
+      <c r="J81" s="49"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11684,7 +11308,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="50"/>
+      <c r="J82" s="49"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11701,7 +11325,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="50"/>
+      <c r="J83" s="49"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11718,7 +11342,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="49"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11735,7 +11359,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="50"/>
+      <c r="J85" s="49"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11752,7 +11376,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="50"/>
+      <c r="J86" s="49"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11769,7 +11393,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="50"/>
+      <c r="J87" s="49"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11786,7 +11410,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="50"/>
+      <c r="J88" s="49"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11803,7 +11427,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="50"/>
+      <c r="J89" s="49"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11820,7 +11444,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="50"/>
+      <c r="J90" s="49"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11837,7 +11461,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="50"/>
+      <c r="J91" s="49"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11854,7 +11478,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="50"/>
+      <c r="J92" s="49"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11871,7 +11495,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="50"/>
+      <c r="J93" s="49"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11888,7 +11512,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="50"/>
+      <c r="J94" s="49"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11905,7 +11529,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="50"/>
+      <c r="J95" s="49"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11922,7 +11546,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="50"/>
+      <c r="J96" s="49"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11939,7 +11563,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="50"/>
+      <c r="J97" s="49"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11956,7 +11580,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="50"/>
+      <c r="J98" s="49"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11973,7 +11597,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="50"/>
+      <c r="J99" s="49"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11990,7 +11614,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="50"/>
+      <c r="J100" s="49"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12007,7 +11631,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="50"/>
+      <c r="J101" s="49"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12024,7 +11648,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="50"/>
+      <c r="J102" s="49"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12041,7 +11665,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="50"/>
+      <c r="J103" s="49"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12058,7 +11682,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="50"/>
+      <c r="J104" s="49"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12075,7 +11699,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="50"/>
+      <c r="J105" s="49"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12092,7 +11716,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="50"/>
+      <c r="J106" s="49"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12109,7 +11733,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="50"/>
+      <c r="J107" s="49"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12126,7 +11750,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="50"/>
+      <c r="J108" s="49"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12143,7 +11767,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="50"/>
+      <c r="J109" s="49"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12160,7 +11784,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="50"/>
+      <c r="J110" s="49"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12177,7 +11801,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="50"/>
+      <c r="J111" s="49"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12194,7 +11818,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="50"/>
+      <c r="J112" s="49"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12211,7 +11835,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="50"/>
+      <c r="J113" s="49"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12228,7 +11852,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="50"/>
+      <c r="J114" s="49"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12245,7 +11869,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="50"/>
+      <c r="J115" s="49"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12262,7 +11886,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="50"/>
+      <c r="J116" s="49"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12279,7 +11903,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="50"/>
+      <c r="J117" s="49"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12296,7 +11920,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="50"/>
+      <c r="J118" s="49"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12313,7 +11937,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="50"/>
+      <c r="J119" s="49"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12330,7 +11954,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="50"/>
+      <c r="J120" s="49"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12347,7 +11971,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="50"/>
+      <c r="J121" s="49"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12364,7 +11988,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="50"/>
+      <c r="J122" s="49"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12381,7 +12005,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="50"/>
+      <c r="J123" s="49"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12398,7 +12022,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="50"/>
+      <c r="J124" s="49"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12415,7 +12039,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="50"/>
+      <c r="J125" s="49"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12432,7 +12056,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="50"/>
+      <c r="J126" s="49"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12449,7 +12073,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="50"/>
+      <c r="J127" s="49"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12466,7 +12090,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="50"/>
+      <c r="J128" s="49"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12483,7 +12107,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="50"/>
+      <c r="J129" s="49"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12500,7 +12124,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="50"/>
+      <c r="J130" s="49"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12517,7 +12141,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="50"/>
+      <c r="J131" s="49"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12534,7 +12158,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="50"/>
+      <c r="J132" s="49"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12551,7 +12175,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="50"/>
+      <c r="J133" s="49"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12568,7 +12192,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="50"/>
+      <c r="J134" s="49"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12585,7 +12209,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="50"/>
+      <c r="J135" s="49"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12602,7 +12226,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="50"/>
+      <c r="J136" s="49"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12619,7 +12243,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="50"/>
+      <c r="J137" s="49"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12636,7 +12260,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="50"/>
+      <c r="J138" s="49"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12653,7 +12277,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="50"/>
+      <c r="J139" s="49"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12670,7 +12294,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="50"/>
+      <c r="J140" s="49"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12687,7 +12311,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="50"/>
+      <c r="J141" s="49"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12704,7 +12328,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="50"/>
+      <c r="J142" s="49"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12721,7 +12345,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="50"/>
+      <c r="J143" s="49"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12738,7 +12362,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="50"/>
+      <c r="J144" s="49"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12755,7 +12379,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="50"/>
+      <c r="J145" s="49"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12772,7 +12396,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="50"/>
+      <c r="J146" s="49"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12789,7 +12413,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="50"/>
+      <c r="J147" s="49"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12806,7 +12430,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="50"/>
+      <c r="J148" s="49"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12823,7 +12447,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="50"/>
+      <c r="J149" s="49"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12840,7 +12464,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="50"/>
+      <c r="J150" s="49"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12857,7 +12481,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="50"/>
+      <c r="J151" s="49"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12874,7 +12498,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="50"/>
+      <c r="J152" s="49"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12891,7 +12515,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="50"/>
+      <c r="J153" s="49"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12908,7 +12532,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="50"/>
+      <c r="J154" s="49"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12925,7 +12549,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="50"/>
+      <c r="J155" s="49"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12942,7 +12566,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="50"/>
+      <c r="J156" s="49"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12959,7 +12583,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="50"/>
+      <c r="J157" s="49"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12976,7 +12600,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="50"/>
+      <c r="J158" s="49"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12993,7 +12617,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="50"/>
+      <c r="J159" s="49"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -13010,7 +12634,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="50"/>
+      <c r="J160" s="49"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -13027,7 +12651,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="50"/>
+      <c r="J161" s="49"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -13044,7 +12668,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="50"/>
+      <c r="J162" s="49"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -13061,7 +12685,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="50"/>
+      <c r="J163" s="49"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -13078,7 +12702,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="50"/>
+      <c r="J164" s="49"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -13095,7 +12719,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="50"/>
+      <c r="J165" s="49"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -13112,7 +12736,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="50"/>
+      <c r="J166" s="49"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -13129,7 +12753,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="50"/>
+      <c r="J167" s="49"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -13146,7 +12770,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="50"/>
+      <c r="J168" s="49"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -13163,7 +12787,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="50"/>
+      <c r="J169" s="49"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -13180,7 +12804,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="50"/>
+      <c r="J170" s="49"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -13197,7 +12821,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="50"/>
+      <c r="J171" s="49"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -13214,7 +12838,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="50"/>
+      <c r="J172" s="49"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -13231,7 +12855,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="50"/>
+      <c r="J173" s="49"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -13248,7 +12872,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="50"/>
+      <c r="J174" s="49"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -13265,7 +12889,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="50"/>
+      <c r="J175" s="49"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -13282,7 +12906,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="50"/>
+      <c r="J176" s="49"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -13299,7 +12923,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="50"/>
+      <c r="J177" s="49"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -13316,7 +12940,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="50"/>
+      <c r="J178" s="49"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -13333,7 +12957,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="50"/>
+      <c r="J179" s="49"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -13350,7 +12974,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="50"/>
+      <c r="J180" s="49"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -13367,7 +12991,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="50"/>
+      <c r="J181" s="49"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13384,7 +13008,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="50"/>
+      <c r="J182" s="49"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13401,7 +13025,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="50"/>
+      <c r="J183" s="49"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -13418,7 +13042,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="50"/>
+      <c r="J184" s="49"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -13435,301 +13059,12 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="50"/>
+      <c r="J185" s="49"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
       <c r="N185" s="23"/>
       <c r="O185" s="22"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="50"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="50"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="50"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="50"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="50"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="50"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="50"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="50"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="50"/>
-      <c r="K195" s="22"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="22"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="50"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="23"/>
-      <c r="O196" s="22"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="50"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="23"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="23"/>
-      <c r="O197" s="22"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="50"/>
-      <c r="K198" s="22"/>
-      <c r="L198" s="23"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="23"/>
-      <c r="O198" s="22"/>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="50"/>
-      <c r="K199" s="22"/>
-      <c r="L199" s="23"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="23"/>
-      <c r="O199" s="22"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="50"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="23"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="23"/>
-      <c r="O200" s="22"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="50"/>
-      <c r="K201" s="22"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="23"/>
-      <c r="O201" s="22"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="50"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="23"/>
-      <c r="O202" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13738,18 +13073,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N103:N202">
+  <conditionalFormatting sqref="N86:N185">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N102">
+  <conditionalFormatting sqref="N1 N3:N85">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13761,10 +13096,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C13 C14 C20 C21 C22 C23 C27 C32 C33 C36 C37 C38 C41 C42 C43 C44 C7:C8 C9:C10 C15:C16 C17:C19 C24:C26 C28:C29 C30:C31 C34:C35 C39:C40 C45:C202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C20 C21 C7:C8 C15:C19 C22:C26 C27:C30 C31:C185">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D13 D14 D20 D21 D22 D23 D27 D32 D33 D36 D37 D38 D41 D42 D43 D44 D7:D8 D9:D10 D15:D16 D17:D19 D24:D26 D28:D29 D30:D31 D34:D35 D39:D40 D45:D202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D20 D21 D7:D8 D15:D19 D22:D26 D27:D30 D31:D185">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-Ledger.xlsx
+++ b/tests/artifact/script/UI-Ledger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,12 +57,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="857">
   <si>
     <t>target</t>
   </si>
@@ -2321,10 +2334,31 @@
     <t>Navigating to Ledger page</t>
   </si>
   <si>
+    <t>Add the OrgName in Org Locator</t>
+  </si>
+  <si>
+    <t>${Org.locator}</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>${Org.Name}</t>
+  </si>
+  <si>
+    <t>NeworgLoc</t>
+  </si>
+  <si>
     <t>click on open organization button</t>
   </si>
   <si>
-    <t>${org.open}</t>
+    <t>${NeworgLoc}</t>
+  </si>
+  <si>
+    <t>Wait for a second</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>click on Hamburger menu to open the menu</t>
@@ -2372,9 +2406,6 @@
     <t>${Account.valueSelect}</t>
   </si>
   <si>
-    <t>\s</t>
-  </si>
-  <si>
     <t>Values.AccountsName</t>
   </si>
   <si>
@@ -2412,19 +2443,223 @@
   </si>
   <si>
     <t>${click.show}</t>
+  </si>
+  <si>
+    <t>Ledger Listing Page</t>
+  </si>
+  <si>
+    <t>Verify the Heading of Ledger List</t>
+  </si>
+  <si>
+    <t>${Ledger.List.Heading}</t>
+  </si>
+  <si>
+    <t>Search functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search and type something </t>
+  </si>
+  <si>
+    <t>${type.searchValue}</t>
+  </si>
+  <si>
+    <t>${Search.Values.Ledger}</t>
+  </si>
+  <si>
+    <t>Save the text which is present after search the value</t>
+  </si>
+  <si>
+    <t>presentvalue</t>
+  </si>
+  <si>
+    <t>${present.search.values}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the expected value </t>
+  </si>
+  <si>
+    <t>expectedvalue</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values.</t>
+  </si>
+  <si>
+    <t>${expectedvalue}</t>
+  </si>
+  <si>
+    <t>${presentvalue}</t>
+  </si>
+  <si>
+    <t>wait for a minute</t>
+  </si>
+  <si>
+    <t>Enter empty search values</t>
+  </si>
+  <si>
+    <t>${empty.search}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the number of row count </t>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>${Ledger.table.row.xpath}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save the count </t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>save the row count</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>Save the ledger voucher number in variable</t>
+  </si>
+  <si>
+    <t>l.Voucher.No</t>
+  </si>
+  <si>
+    <t>${Ledger.table.row.xpath}[${counter}]${ledger.voucher.No}</t>
+  </si>
+  <si>
+    <t>${l.Voucher.No}</t>
+  </si>
+  <si>
+    <t>Increase the count</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Filter </t>
+  </si>
+  <si>
+    <t>${filters.button}</t>
+  </si>
+  <si>
+    <t>click on filter again to close the filter</t>
+  </si>
+  <si>
+    <t>verify the filter table is visible or not after closing the filter</t>
+  </si>
+  <si>
+    <t>${filters.table}</t>
+  </si>
+  <si>
+    <t>Click on filter to open the Filter table</t>
+  </si>
+  <si>
+    <t>select the credit check box</t>
+  </si>
+  <si>
+    <t>${filters.credit}</t>
+  </si>
+  <si>
+    <t>Save the voucher number in variable</t>
+  </si>
+  <si>
+    <t>vnumber</t>
+  </si>
+  <si>
+    <t>${voucher.no.credit}</t>
+  </si>
+  <si>
+    <t>click on voucher number to navigate to respective ledger page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate the Voucher number in receipt page </t>
+  </si>
+  <si>
+    <t>${VN.receipt.page}</t>
+  </si>
+  <si>
+    <t>Save the Voucher text value in variable</t>
+  </si>
+  <si>
+    <t>vouValue</t>
+  </si>
+  <si>
+    <t>save the voucher value in variable</t>
+  </si>
+  <si>
+    <t>vouchervalue</t>
+  </si>
+  <si>
+    <t>${vouValue}</t>
+  </si>
+  <si>
+    <t>${vouchervalue}</t>
+  </si>
+  <si>
+    <t>${vnumber}</t>
+  </si>
+  <si>
+    <t>Goback to the previous page.</t>
+  </si>
+  <si>
+    <t>In Filter select Debit only</t>
+  </si>
+  <si>
+    <t>click on debit only option in filter</t>
+  </si>
+  <si>
+    <t>${filters.Debit}</t>
+  </si>
+  <si>
+    <t>click on filter Icon to close the filter table</t>
+  </si>
+  <si>
+    <t>debitvnumber</t>
+  </si>
+  <si>
+    <t>${voucher.no.debit}</t>
+  </si>
+  <si>
+    <t>debitvouValue</t>
+  </si>
+  <si>
+    <t>debitvouchervalue</t>
+  </si>
+  <si>
+    <t>${debitvouValue}</t>
+  </si>
+  <si>
+    <t>${debitvouchervalue}</t>
+  </si>
+  <si>
+    <t>${debitvnumber}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2488,6 +2723,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -3006,147 +3253,147 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3227,6 +3474,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3240,19 +3503,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3273,6 +3528,37 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3298,7 +3584,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3306,15 +3592,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3326,14 +3612,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6451,14 +6734,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="39"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6472,12 +6755,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="38"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6489,7 +6772,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="42"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6524,10 +6807,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="54" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6542,96 +6825,96 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="27" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="29" t="s">
         <v>750</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="46"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="46"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="46"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="49"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6641,14 +6924,14 @@
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="49"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6658,14 +6941,14 @@
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="49"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6675,14 +6958,14 @@
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="49"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6692,14 +6975,14 @@
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="49"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -6709,14 +6992,14 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="49"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -6726,14 +7009,14 @@
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="49"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -6742,15 +7025,15 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="49"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -6760,14 +7043,14 @@
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="49"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -6777,14 +7060,14 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="49"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -6794,14 +7077,14 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="49"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -6811,14 +7094,14 @@
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="49"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -6828,14 +7111,14 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="49"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -6845,14 +7128,14 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="49"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -6862,14 +7145,14 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="49"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -6879,14 +7162,14 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="49"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -6896,14 +7179,14 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="49"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -6913,14 +7196,14 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="49"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -6930,14 +7213,14 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="49"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="60"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -6947,14 +7230,14 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="49"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="60"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -6964,14 +7247,14 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -6981,14 +7264,14 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="49"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -6998,14 +7281,14 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="49"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="60"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7015,14 +7298,14 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="49"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="60"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7032,14 +7315,14 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="49"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="60"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7049,14 +7332,14 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="49"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7066,14 +7349,14 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="49"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="60"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7083,14 +7366,14 @@
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="49"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="60"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7100,14 +7383,14 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="49"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="60"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7117,14 +7400,14 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="49"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7134,14 +7417,14 @@
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="49"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7151,14 +7434,14 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="49"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7168,14 +7451,14 @@
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="49"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7185,14 +7468,14 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="49"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="60"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7202,14 +7485,14 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="49"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="60"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7219,14 +7502,14 @@
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="49"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="60"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7236,14 +7519,14 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="49"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7253,14 +7536,14 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="49"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="60"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7270,14 +7553,14 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="49"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7287,14 +7570,14 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="49"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7304,14 +7587,14 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="49"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7321,14 +7604,14 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="49"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7338,14 +7621,14 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="49"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="60"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7355,14 +7638,14 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="49"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="60"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7372,14 +7655,14 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="49"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="60"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7389,14 +7672,14 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="49"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="60"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7406,14 +7689,14 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="49"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="60"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7423,14 +7706,14 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="49"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="60"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7440,14 +7723,14 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="49"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="60"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7457,14 +7740,14 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="49"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="60"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7474,14 +7757,14 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="49"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="60"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7491,14 +7774,14 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="49"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7508,14 +7791,14 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="49"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="60"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7525,14 +7808,14 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="49"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="60"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7542,14 +7825,14 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="49"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="60"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7559,14 +7842,14 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="49"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="60"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7576,14 +7859,14 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="49"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="60"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7593,14 +7876,14 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="49"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="60"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7610,14 +7893,14 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="49"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="60"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7627,14 +7910,14 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="49"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="60"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7644,14 +7927,14 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="49"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="60"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7661,14 +7944,14 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="49"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="60"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7678,14 +7961,14 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="49"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="60"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7695,14 +7978,14 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="49"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="60"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -7712,14 +7995,14 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="49"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="60"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -7729,14 +8012,14 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="49"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="60"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -7746,14 +8029,14 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="49"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -7763,14 +8046,14 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="49"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="60"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -7780,14 +8063,14 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="49"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="60"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -7797,14 +8080,14 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="49"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="60"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -7814,14 +8097,14 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="49"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="60"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -7831,14 +8114,14 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="49"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="60"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -7848,14 +8131,14 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="49"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="60"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -7865,14 +8148,14 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="49"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="60"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -7882,14 +8165,14 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="49"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="60"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -7899,14 +8182,14 @@
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="49"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="60"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -7916,14 +8199,14 @@
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="49"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="60"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -7933,14 +8216,14 @@
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="49"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="60"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -7950,14 +8233,14 @@
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="49"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="60"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -7967,14 +8250,14 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="49"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="60"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -7984,14 +8267,14 @@
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="49"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="60"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8001,14 +8284,14 @@
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="49"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="60"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8018,14 +8301,14 @@
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="49"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="60"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8035,14 +8318,14 @@
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="49"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="60"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8052,14 +8335,14 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="49"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="60"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8069,14 +8352,14 @@
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="49"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="60"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8086,14 +8369,14 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="49"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="60"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8103,14 +8386,14 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="49"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="60"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8120,14 +8403,14 @@
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
       <c r="B97" s="20"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="49"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="60"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8137,14 +8420,14 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="49"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="60"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8154,14 +8437,14 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="49"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="60"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8171,14 +8454,14 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="49"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8188,14 +8471,14 @@
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="49"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="60"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8205,14 +8488,14 @@
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="49"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="60"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8222,14 +8505,14 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="49"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="60"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8239,14 +8522,14 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="49"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="60"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8256,14 +8539,14 @@
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="49"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="60"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8273,14 +8556,14 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="49"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="60"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8290,14 +8573,14 @@
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="49"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="60"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8307,14 +8590,14 @@
     <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="49"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="60"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8324,14 +8607,14 @@
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="49"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="60"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8341,14 +8624,14 @@
     <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="49"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="60"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8358,14 +8641,14 @@
     <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="49"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="60"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8375,14 +8658,14 @@
     <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="49"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="60"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8392,14 +8675,14 @@
     <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="49"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="60"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8409,14 +8692,14 @@
     <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="49"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="60"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8426,14 +8709,14 @@
     <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="49"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="60"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8443,14 +8726,14 @@
     <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="49"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="60"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8460,14 +8743,14 @@
     <row r="117" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="49"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="60"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8477,14 +8760,14 @@
     <row r="118" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A118" s="19"/>
       <c r="B118" s="20"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="49"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="60"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8494,14 +8777,14 @@
     <row r="119" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="49"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="60"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8511,14 +8794,14 @@
     <row r="120" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="19"/>
       <c r="B120" s="20"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="49"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="60"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8528,14 +8811,14 @@
     <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="49"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="60"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8545,14 +8828,14 @@
     <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="19"/>
       <c r="B122" s="20"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="49"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="60"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8562,14 +8845,14 @@
     <row r="123" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="49"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="60"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8579,14 +8862,14 @@
     <row r="124" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="49"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="60"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8596,14 +8879,14 @@
     <row r="125" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="49"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="60"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8613,14 +8896,14 @@
     <row r="126" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="49"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="60"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8630,14 +8913,14 @@
     <row r="127" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="49"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="60"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8647,14 +8930,14 @@
     <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="49"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="60"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8664,14 +8947,14 @@
     <row r="129" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A129" s="19"/>
       <c r="B129" s="20"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="49"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="60"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8681,14 +8964,14 @@
     <row r="130" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A130" s="19"/>
       <c r="B130" s="20"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="49"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="60"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8698,14 +8981,14 @@
     <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A131" s="19"/>
       <c r="B131" s="20"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="49"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="60"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -8715,14 +8998,14 @@
     <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A132" s="19"/>
       <c r="B132" s="20"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="49"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="60"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -8732,14 +9015,14 @@
     <row r="133" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A133" s="19"/>
       <c r="B133" s="20"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="49"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="60"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -8749,14 +9032,14 @@
     <row r="134" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A134" s="19"/>
       <c r="B134" s="20"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="49"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="60"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -8766,14 +9049,14 @@
     <row r="135" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A135" s="19"/>
       <c r="B135" s="20"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="49"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="60"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -8783,14 +9066,14 @@
     <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A136" s="19"/>
       <c r="B136" s="20"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="49"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="60"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -8800,14 +9083,14 @@
     <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A137" s="19"/>
       <c r="B137" s="20"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="49"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="60"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -8817,14 +9100,14 @@
     <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A138" s="19"/>
       <c r="B138" s="20"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="49"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="60"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -8834,14 +9117,14 @@
     <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A139" s="19"/>
       <c r="B139" s="20"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="49"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="60"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -8851,14 +9134,14 @@
     <row r="140" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A140" s="19"/>
       <c r="B140" s="20"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="49"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="60"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -8868,14 +9151,14 @@
     <row r="141" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A141" s="19"/>
       <c r="B141" s="20"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="49"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="60"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -8885,14 +9168,14 @@
     <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A142" s="19"/>
       <c r="B142" s="20"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="49"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="60"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -8902,14 +9185,14 @@
     <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A143" s="19"/>
       <c r="B143" s="20"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="49"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="60"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -8919,14 +9202,14 @@
     <row r="144" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A144" s="19"/>
       <c r="B144" s="20"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="49"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="60"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -8936,14 +9219,14 @@
     <row r="145" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A145" s="19"/>
       <c r="B145" s="20"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="49"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="60"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -8953,14 +9236,14 @@
     <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A146" s="19"/>
       <c r="B146" s="20"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="49"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="60"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -8970,14 +9253,14 @@
     <row r="147" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A147" s="19"/>
       <c r="B147" s="20"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="49"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="60"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -8987,14 +9270,14 @@
     <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A148" s="19"/>
       <c r="B148" s="20"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="49"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="60"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9004,14 +9287,14 @@
     <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A149" s="19"/>
       <c r="B149" s="20"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="49"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="60"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9021,14 +9304,14 @@
     <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A150" s="19"/>
       <c r="B150" s="20"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="49"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="60"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9038,14 +9321,14 @@
     <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A151" s="19"/>
       <c r="B151" s="20"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="49"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="60"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9055,14 +9338,14 @@
     <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A152" s="19"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="49"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="60"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9072,14 +9355,14 @@
     <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A153" s="19"/>
       <c r="B153" s="20"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="49"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="60"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9089,14 +9372,14 @@
     <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A154" s="19"/>
       <c r="B154" s="20"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="49"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="60"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9106,14 +9389,14 @@
     <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A155" s="19"/>
       <c r="B155" s="20"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="49"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
+      <c r="J155" s="60"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9123,14 +9406,14 @@
     <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A156" s="19"/>
       <c r="B156" s="20"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="49"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+      <c r="J156" s="60"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9140,14 +9423,14 @@
     <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A157" s="19"/>
       <c r="B157" s="20"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="49"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
+      <c r="J157" s="60"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9157,14 +9440,14 @@
     <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A158" s="19"/>
       <c r="B158" s="20"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="49"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="60"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9174,14 +9457,14 @@
     <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A159" s="19"/>
       <c r="B159" s="20"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="49"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="60"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9191,14 +9474,14 @@
     <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A160" s="19"/>
       <c r="B160" s="20"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="49"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="60"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9208,14 +9491,14 @@
     <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A161" s="19"/>
       <c r="B161" s="20"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="49"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="60"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9225,14 +9508,14 @@
     <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A162" s="19"/>
       <c r="B162" s="20"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="49"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="60"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9242,14 +9525,14 @@
     <row r="163" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A163" s="19"/>
       <c r="B163" s="20"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="49"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="60"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9259,14 +9542,14 @@
     <row r="164" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A164" s="19"/>
       <c r="B164" s="20"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="49"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="60"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9276,14 +9559,14 @@
     <row r="165" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A165" s="19"/>
       <c r="B165" s="20"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="49"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="60"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9293,14 +9576,14 @@
     <row r="166" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A166" s="19"/>
       <c r="B166" s="20"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="49"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="60"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9310,14 +9593,14 @@
     <row r="167" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A167" s="19"/>
       <c r="B167" s="20"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="49"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="60"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9327,14 +9610,14 @@
     <row r="168" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A168" s="19"/>
       <c r="B168" s="20"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="49"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="60"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9344,14 +9627,14 @@
     <row r="169" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A169" s="19"/>
       <c r="B169" s="20"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="49"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="60"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -9361,14 +9644,14 @@
     <row r="170" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A170" s="19"/>
       <c r="B170" s="20"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="49"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="60"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -9378,14 +9661,14 @@
     <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A171" s="19"/>
       <c r="B171" s="20"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="49"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="60"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -9395,14 +9678,14 @@
     <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A172" s="19"/>
       <c r="B172" s="20"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="49"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="60"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -9412,14 +9695,14 @@
     <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A173" s="19"/>
       <c r="B173" s="20"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="49"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="60"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -9429,14 +9712,14 @@
     <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A174" s="19"/>
       <c r="B174" s="20"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="49"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="60"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -9446,14 +9729,14 @@
     <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A175" s="19"/>
       <c r="B175" s="20"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="49"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="60"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -9463,14 +9746,14 @@
     <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A176" s="19"/>
       <c r="B176" s="20"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="49"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="60"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -9480,14 +9763,14 @@
     <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A177" s="19"/>
       <c r="B177" s="20"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="49"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="60"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -9497,14 +9780,14 @@
     <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A178" s="19"/>
       <c r="B178" s="20"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="49"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
+      <c r="J178" s="60"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -9514,14 +9797,14 @@
     <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A179" s="19"/>
       <c r="B179" s="20"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="49"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="60"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -9531,14 +9814,14 @@
     <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A180" s="19"/>
       <c r="B180" s="20"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="49"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="60"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -9548,14 +9831,14 @@
     <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A181" s="19"/>
       <c r="B181" s="20"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="49"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
+      <c r="J181" s="60"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -9565,14 +9848,14 @@
     <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A182" s="19"/>
       <c r="B182" s="20"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="49"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="60"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -9582,14 +9865,14 @@
     <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A183" s="19"/>
       <c r="B183" s="20"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="49"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="60"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
@@ -9599,14 +9882,14 @@
     <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A184" s="19"/>
       <c r="B184" s="20"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="49"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
+      <c r="J184" s="60"/>
       <c r="K184" s="22"/>
       <c r="L184" s="23"/>
       <c r="M184" s="21"/>
@@ -9616,14 +9899,14 @@
     <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A185" s="19"/>
       <c r="B185" s="20"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="49"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="60"/>
       <c r="K185" s="22"/>
       <c r="L185" s="23"/>
       <c r="M185" s="21"/>
@@ -9633,14 +9916,14 @@
     <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A186" s="19"/>
       <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="49"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="60"/>
       <c r="K186" s="22"/>
       <c r="L186" s="23"/>
       <c r="M186" s="21"/>
@@ -9650,14 +9933,14 @@
     <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A187" s="19"/>
       <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="49"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="60"/>
       <c r="K187" s="22"/>
       <c r="L187" s="23"/>
       <c r="M187" s="21"/>
@@ -9667,14 +9950,14 @@
     <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A188" s="19"/>
       <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="49"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
+      <c r="J188" s="60"/>
       <c r="K188" s="22"/>
       <c r="L188" s="23"/>
       <c r="M188" s="21"/>
@@ -9737,10 +10020,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9785,14 +10068,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="39"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9806,12 +10089,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="38"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9823,7 +10106,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="42"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9858,10 +10141,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="54" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9883,125 +10166,129 @@
         <v>752</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="F5" s="28">
-        <v>1500</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="46"/>
+      <c r="F5" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
       <c r="B6" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="C6" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="D6" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="C7" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>758</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A9" s="19" t="s">
-        <v>761</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="49"/>
+      <c r="E9" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10010,23 +10297,23 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
-      <c r="B10" s="30" t="s">
-        <v>764</v>
+      <c r="B10" s="34" t="s">
+        <v>766</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>707</v>
+      <c r="D10" s="32" t="s">
+        <v>363</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>765</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="49"/>
+        <v>767</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10034,30 +10321,26 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="33" t="s">
-        <v>767</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="A11" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>769</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>770</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="49"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10066,23 +10349,23 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>771</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="49"/>
+      <c r="F12" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10091,25 +10374,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>754</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>773</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>775</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="49"/>
+      <c r="H13" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10118,25 +10405,23 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="D14" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>778</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10145,15 +10430,25 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="49"/>
+      <c r="B15" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10162,15 +10457,25 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="49"/>
+      <c r="B16" s="34" t="s">
+        <v>782</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10179,15 +10484,23 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="34" t="s">
+        <v>785</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10196,15 +10509,25 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="49"/>
+      <c r="B18" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="F18" s="33">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10212,16 +10535,26 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10229,24 +10562,28 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>793</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="49"/>
+      <c r="D20" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>794</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>795</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10255,23 +10592,25 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="49"/>
+      <c r="D21" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>798</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10280,15 +10619,25 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="49"/>
+      <c r="B22" s="42" t="s">
+        <v>799</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>800</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>795</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10297,15 +10646,25 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="49"/>
+      <c r="B23" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>802</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10314,15 +10673,23 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="49"/>
+      <c r="B24" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10331,15 +10698,25 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="49"/>
+      <c r="B25" s="34" t="s">
+        <v>805</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>794</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10348,15 +10725,25 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="49"/>
+      <c r="B26" s="34" t="s">
+        <v>807</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>809</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10365,15 +10752,25 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="49"/>
+      <c r="B27" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>812</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="60"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10382,15 +10779,23 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>814</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="60"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10399,15 +10804,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="49"/>
+      <c r="B29" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10416,15 +10831,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="B30" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>819</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>820</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="49"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10433,15 +10858,23 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>820</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="60"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10450,15 +10883,25 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>812</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="60"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10466,16 +10909,26 @@
       <c r="O32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="49"/>
+      <c r="A33" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="60"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10484,15 +10937,23 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10501,15 +10962,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="49"/>
+      <c r="B35" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>828</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="60"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10518,15 +10989,23 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="49"/>
+      <c r="B36" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="60"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10535,15 +11014,23 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="49"/>
+      <c r="B37" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="60"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10552,15 +11039,23 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="49"/>
+      <c r="B38" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="60"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10569,15 +11064,25 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="49"/>
+      <c r="B39" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>833</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10586,15 +11091,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="49"/>
+      <c r="B40" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10603,15 +11118,23 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="49"/>
+      <c r="B41" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10620,15 +11143,25 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="49"/>
+      <c r="B42" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="60"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10637,15 +11170,25 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="49"/>
+      <c r="B43" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>841</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="60"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10654,15 +11197,25 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="49"/>
+      <c r="B44" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="60"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10671,15 +11224,21 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="49"/>
+      <c r="B45" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10688,15 +11247,23 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="49"/>
+      <c r="B46" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="60"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10705,15 +11272,23 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="49"/>
+      <c r="B47" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10722,15 +11297,23 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="49"/>
+      <c r="B48" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -10739,15 +11322,23 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="49"/>
+      <c r="B49" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -10756,15 +11347,23 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="49"/>
+      <c r="B50" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -10773,15 +11372,25 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="49"/>
+      <c r="B51" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>850</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="60"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -10790,15 +11399,25 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="49"/>
+      <c r="B52" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="60"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -10807,15 +11426,23 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="49"/>
+      <c r="B53" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>837</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="60"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -10824,15 +11451,25 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="49"/>
+      <c r="B54" s="46" t="s">
+        <v>838</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>852</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>837</v>
+      </c>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="60"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -10841,15 +11478,25 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="49"/>
+      <c r="B55" s="46" t="s">
+        <v>840</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>853</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>854</v>
+      </c>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="60"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -10858,15 +11505,25 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="49"/>
+      <c r="B56" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>855</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>856</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="60"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -10875,15 +11532,21 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="49"/>
+      <c r="B57" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="60"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -10893,14 +11556,14 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="49"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="60"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -10910,14 +11573,14 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="49"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="60"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -10927,14 +11590,14 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="49"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -10944,14 +11607,14 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="49"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="60"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -10961,14 +11624,14 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="49"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="60"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -10978,14 +11641,14 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="49"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="60"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -10995,14 +11658,14 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="49"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="60"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -11012,14 +11675,14 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="49"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="60"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11029,14 +11692,14 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="49"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="60"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11046,14 +11709,14 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="49"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="60"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11063,14 +11726,14 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="49"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="60"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11080,14 +11743,14 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="49"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="60"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11097,14 +11760,14 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="49"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="60"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11114,14 +11777,14 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="49"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="60"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11131,14 +11794,14 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="49"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="60"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11148,14 +11811,14 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="49"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="60"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11165,14 +11828,14 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="49"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="60"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11182,14 +11845,14 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="49"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11199,14 +11862,14 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="49"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="60"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11216,14 +11879,14 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="49"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="60"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11233,14 +11896,14 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="49"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="60"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11250,14 +11913,14 @@
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="49"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="60"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11267,14 +11930,14 @@
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="49"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="60"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11284,14 +11947,14 @@
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="49"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="60"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11301,14 +11964,14 @@
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="49"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="60"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11318,14 +11981,14 @@
     <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="49"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="60"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11335,14 +11998,14 @@
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="49"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="60"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11352,14 +12015,14 @@
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="49"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="60"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11369,14 +12032,14 @@
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="49"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="60"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11386,14 +12049,14 @@
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="49"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="60"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11403,14 +12066,14 @@
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="49"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="60"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11420,14 +12083,14 @@
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="49"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="60"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11437,14 +12100,14 @@
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="49"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="60"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11454,14 +12117,14 @@
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="49"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="60"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11471,14 +12134,14 @@
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="49"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="60"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11488,14 +12151,14 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="49"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="60"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -11505,14 +12168,14 @@
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="49"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="60"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -11522,14 +12185,14 @@
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="49"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="60"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -11539,14 +12202,14 @@
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="49"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="60"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -11556,14 +12219,14 @@
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
       <c r="B97" s="20"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="49"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="60"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -11573,14 +12236,14 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="49"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="60"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -11590,14 +12253,14 @@
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="49"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="60"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -11607,14 +12270,14 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="49"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -11624,14 +12287,14 @@
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="49"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="60"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -11641,14 +12304,14 @@
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="49"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="60"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -11658,14 +12321,14 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="49"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="60"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -11675,14 +12338,14 @@
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="49"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="60"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -11692,14 +12355,14 @@
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="49"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="60"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -11709,14 +12372,14 @@
     <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="49"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="60"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -11726,14 +12389,14 @@
     <row r="107" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="49"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="60"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -11743,14 +12406,14 @@
     <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="49"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="60"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -11760,14 +12423,14 @@
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="49"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="60"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -11777,14 +12440,14 @@
     <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="49"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="60"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -11794,14 +12457,14 @@
     <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="49"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="60"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -11811,14 +12474,14 @@
     <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="49"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="60"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -11828,14 +12491,14 @@
     <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="49"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="60"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -11845,14 +12508,14 @@
     <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="49"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="60"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -11862,14 +12525,14 @@
     <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="49"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="60"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -11879,14 +12542,14 @@
     <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="49"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="60"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -11896,14 +12559,14 @@
     <row r="117" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="49"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="60"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -11913,14 +12576,14 @@
     <row r="118" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A118" s="19"/>
       <c r="B118" s="20"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="49"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="60"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -11930,14 +12593,14 @@
     <row r="119" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="49"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="60"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -11947,14 +12610,14 @@
     <row r="120" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="19"/>
       <c r="B120" s="20"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="49"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="60"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -11964,14 +12627,14 @@
     <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="49"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="60"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -11981,14 +12644,14 @@
     <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="19"/>
       <c r="B122" s="20"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="49"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="60"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -11998,14 +12661,14 @@
     <row r="123" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="49"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="60"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12015,14 +12678,14 @@
     <row r="124" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="49"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="60"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12032,14 +12695,14 @@
     <row r="125" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="49"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="60"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12049,14 +12712,14 @@
     <row r="126" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="49"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="60"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12066,14 +12729,14 @@
     <row r="127" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="49"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="60"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12083,14 +12746,14 @@
     <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="49"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="60"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12100,14 +12763,14 @@
     <row r="129" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A129" s="19"/>
       <c r="B129" s="20"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="49"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="60"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12117,14 +12780,14 @@
     <row r="130" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A130" s="19"/>
       <c r="B130" s="20"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="49"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="60"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12134,14 +12797,14 @@
     <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A131" s="19"/>
       <c r="B131" s="20"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="49"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="60"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12151,14 +12814,14 @@
     <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A132" s="19"/>
       <c r="B132" s="20"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="49"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="60"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12168,14 +12831,14 @@
     <row r="133" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A133" s="19"/>
       <c r="B133" s="20"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="49"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="60"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12185,14 +12848,14 @@
     <row r="134" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A134" s="19"/>
       <c r="B134" s="20"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="49"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="60"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12202,14 +12865,14 @@
     <row r="135" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A135" s="19"/>
       <c r="B135" s="20"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="49"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="60"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12219,14 +12882,14 @@
     <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A136" s="19"/>
       <c r="B136" s="20"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="49"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="60"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12236,14 +12899,14 @@
     <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A137" s="19"/>
       <c r="B137" s="20"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="49"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="60"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12253,14 +12916,14 @@
     <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A138" s="19"/>
       <c r="B138" s="20"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="49"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="60"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12270,14 +12933,14 @@
     <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A139" s="19"/>
       <c r="B139" s="20"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="49"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="60"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12287,14 +12950,14 @@
     <row r="140" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A140" s="19"/>
       <c r="B140" s="20"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="49"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="60"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12304,14 +12967,14 @@
     <row r="141" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A141" s="19"/>
       <c r="B141" s="20"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="49"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="60"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12321,14 +12984,14 @@
     <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A142" s="19"/>
       <c r="B142" s="20"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="49"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="60"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12338,14 +13001,14 @@
     <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A143" s="19"/>
       <c r="B143" s="20"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="49"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="60"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12355,14 +13018,14 @@
     <row r="144" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A144" s="19"/>
       <c r="B144" s="20"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="49"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="60"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12372,14 +13035,14 @@
     <row r="145" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A145" s="19"/>
       <c r="B145" s="20"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="49"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="60"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12389,14 +13052,14 @@
     <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A146" s="19"/>
       <c r="B146" s="20"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="49"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="60"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12406,14 +13069,14 @@
     <row r="147" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A147" s="19"/>
       <c r="B147" s="20"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="49"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="60"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12423,14 +13086,14 @@
     <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A148" s="19"/>
       <c r="B148" s="20"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="49"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="60"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12440,14 +13103,14 @@
     <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A149" s="19"/>
       <c r="B149" s="20"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="49"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="60"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12457,14 +13120,14 @@
     <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A150" s="19"/>
       <c r="B150" s="20"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="49"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="60"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12474,14 +13137,14 @@
     <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A151" s="19"/>
       <c r="B151" s="20"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="49"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="60"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12491,14 +13154,14 @@
     <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A152" s="19"/>
       <c r="B152" s="20"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="49"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="60"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -12508,14 +13171,14 @@
     <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A153" s="19"/>
       <c r="B153" s="20"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="49"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="60"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -12525,14 +13188,14 @@
     <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A154" s="19"/>
       <c r="B154" s="20"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="49"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="60"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -12542,14 +13205,14 @@
     <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A155" s="19"/>
       <c r="B155" s="20"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="49"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
+      <c r="J155" s="60"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -12559,14 +13222,14 @@
     <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A156" s="19"/>
       <c r="B156" s="20"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="49"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+      <c r="J156" s="60"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -12576,14 +13239,14 @@
     <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A157" s="19"/>
       <c r="B157" s="20"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="49"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
+      <c r="J157" s="60"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -12593,14 +13256,14 @@
     <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A158" s="19"/>
       <c r="B158" s="20"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="49"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="60"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -12610,14 +13273,14 @@
     <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A159" s="19"/>
       <c r="B159" s="20"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="49"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="60"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -12627,14 +13290,14 @@
     <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A160" s="19"/>
       <c r="B160" s="20"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="49"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="60"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -12644,14 +13307,14 @@
     <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A161" s="19"/>
       <c r="B161" s="20"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="49"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="60"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -12661,14 +13324,14 @@
     <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A162" s="19"/>
       <c r="B162" s="20"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="49"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="60"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -12678,14 +13341,14 @@
     <row r="163" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A163" s="19"/>
       <c r="B163" s="20"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="49"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="60"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -12695,14 +13358,14 @@
     <row r="164" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A164" s="19"/>
       <c r="B164" s="20"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="49"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="60"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -12712,14 +13375,14 @@
     <row r="165" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A165" s="19"/>
       <c r="B165" s="20"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="49"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="60"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -12729,14 +13392,14 @@
     <row r="166" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A166" s="19"/>
       <c r="B166" s="20"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="49"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="60"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -12746,14 +13409,14 @@
     <row r="167" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A167" s="19"/>
       <c r="B167" s="20"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="49"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="60"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -12763,14 +13426,14 @@
     <row r="168" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A168" s="19"/>
       <c r="B168" s="20"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="49"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="60"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -12780,14 +13443,14 @@
     <row r="169" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A169" s="19"/>
       <c r="B169" s="20"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="49"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="60"/>
       <c r="K169" s="22"/>
       <c r="L169" s="23"/>
       <c r="M169" s="21"/>
@@ -12797,14 +13460,14 @@
     <row r="170" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A170" s="19"/>
       <c r="B170" s="20"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="49"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="60"/>
       <c r="K170" s="22"/>
       <c r="L170" s="23"/>
       <c r="M170" s="21"/>
@@ -12814,14 +13477,14 @@
     <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A171" s="19"/>
       <c r="B171" s="20"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="49"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="60"/>
       <c r="K171" s="22"/>
       <c r="L171" s="23"/>
       <c r="M171" s="21"/>
@@ -12831,14 +13494,14 @@
     <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A172" s="19"/>
       <c r="B172" s="20"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="49"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="60"/>
       <c r="K172" s="22"/>
       <c r="L172" s="23"/>
       <c r="M172" s="21"/>
@@ -12848,14 +13511,14 @@
     <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A173" s="19"/>
       <c r="B173" s="20"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="49"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="60"/>
       <c r="K173" s="22"/>
       <c r="L173" s="23"/>
       <c r="M173" s="21"/>
@@ -12865,14 +13528,14 @@
     <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A174" s="19"/>
       <c r="B174" s="20"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="49"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="60"/>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
       <c r="M174" s="21"/>
@@ -12882,14 +13545,14 @@
     <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A175" s="19"/>
       <c r="B175" s="20"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="49"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="60"/>
       <c r="K175" s="22"/>
       <c r="L175" s="23"/>
       <c r="M175" s="21"/>
@@ -12899,14 +13562,14 @@
     <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A176" s="19"/>
       <c r="B176" s="20"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="49"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="60"/>
       <c r="K176" s="22"/>
       <c r="L176" s="23"/>
       <c r="M176" s="21"/>
@@ -12916,14 +13579,14 @@
     <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A177" s="19"/>
       <c r="B177" s="20"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="49"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="60"/>
       <c r="K177" s="22"/>
       <c r="L177" s="23"/>
       <c r="M177" s="21"/>
@@ -12933,14 +13596,14 @@
     <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A178" s="19"/>
       <c r="B178" s="20"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="49"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
+      <c r="J178" s="60"/>
       <c r="K178" s="22"/>
       <c r="L178" s="23"/>
       <c r="M178" s="21"/>
@@ -12950,14 +13613,14 @@
     <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A179" s="19"/>
       <c r="B179" s="20"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="49"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="60"/>
       <c r="K179" s="22"/>
       <c r="L179" s="23"/>
       <c r="M179" s="21"/>
@@ -12967,14 +13630,14 @@
     <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A180" s="19"/>
       <c r="B180" s="20"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="49"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="60"/>
       <c r="K180" s="22"/>
       <c r="L180" s="23"/>
       <c r="M180" s="21"/>
@@ -12984,14 +13647,14 @@
     <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A181" s="19"/>
       <c r="B181" s="20"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="49"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
+      <c r="J181" s="60"/>
       <c r="K181" s="22"/>
       <c r="L181" s="23"/>
       <c r="M181" s="21"/>
@@ -13001,14 +13664,14 @@
     <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A182" s="19"/>
       <c r="B182" s="20"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="49"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="60"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
       <c r="M182" s="21"/>
@@ -13018,53 +13681,19 @@
     <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A183" s="19"/>
       <c r="B183" s="20"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="49"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="60"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
       <c r="M183" s="21"/>
       <c r="N183" s="23"/>
       <c r="O183" s="22"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="49"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="23"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="49"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13073,18 +13702,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N86:N185">
+  <conditionalFormatting sqref="N84:N183">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N85">
+  <conditionalFormatting sqref="N1 N3:N83">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13096,10 +13725,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C20 C21 C7:C8 C15:C19 C22:C26 C27:C30 C31:C185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C26 C27 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C42 C43 C44 C45 C46 C51 C54 C55 C56 C57 C9:C10 C24:C25 C28:C29 C40:C41 C47:C50 C52:C53 C58:C183">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D20 D21 D7:D8 D15:D19 D22:D26 D27:D30 D31:D185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D26 D27 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D42 D43 D44 D45 D46 D51 D54 D55 D56 D57 D9:D10 D24:D25 D28:D29 D40:D41 D47:D50 D52:D53 D58:D183">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-Ledger.xlsx
+++ b/tests/artifact/script/UI-Ledger.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Token" sheetId="6" r:id="rId2"/>
+    <sheet name="Login UI" sheetId="6" r:id="rId2"/>
     <sheet name="Ledger" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -6689,8 +6689,8 @@
   <sheetPr/>
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10022,8 +10022,8 @@
   <sheetPr/>
   <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
